--- a/Documentacion/Segunda Entrega/A81556_A96812/Proyecto_Pruebas/A81556/Jugar Partida/TablaReporteJugarPartida.xlsx
+++ b/Documentacion/Segunda Entrega/A81556_A96812/Proyecto_Pruebas/A81556/Jugar Partida/TablaReporteJugarPartida.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="615" windowWidth="25815" windowHeight="11445" tabRatio="862" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="750" yWindow="615" windowWidth="25815" windowHeight="11445" tabRatio="862" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Jugar Partida - ESC01" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="89">
   <si>
     <t>CP-01</t>
   </si>
@@ -211,6 +211,81 @@
   </si>
   <si>
     <t>Click en ficha neutral o rival</t>
+  </si>
+  <si>
+    <t>Ninguno</t>
+  </si>
+  <si>
+    <t>Solo partida para 2 jugadores aparece</t>
+  </si>
+  <si>
+    <t>Aparece la partida multijugador para 2 jugadores</t>
+  </si>
+  <si>
+    <t>Aparece la partida multijugador para 4 jugadores</t>
+  </si>
+  <si>
+    <t>Ninguno: "habilitar ayuda involucra otro caso de uso"</t>
+  </si>
+  <si>
+    <t>Aparece partida en solitario</t>
+  </si>
+  <si>
+    <t>Ninguno (Suspender partidas involucra otro caso de uso)</t>
+  </si>
+  <si>
+    <t>El estado de la partida queda salvada</t>
+  </si>
+  <si>
+    <t>Los datos de la partida jugada quedan preservados</t>
+  </si>
+  <si>
+    <t>El estado de la partida queda salvada siempre en todo momento</t>
+  </si>
+  <si>
+    <t>Los datos de la partida jugada se guardan</t>
+  </si>
+  <si>
+    <t>Se entra a la partida deseada</t>
+  </si>
+  <si>
+    <t>El boton de entrar sigue siendo disponible</t>
+  </si>
+  <si>
+    <t>Si se puede entrar a la partida</t>
+  </si>
+  <si>
+    <t>No se puede entrar a partidas no disponibles</t>
+  </si>
+  <si>
+    <t>No es posible inscribirse a un torneo aun</t>
+  </si>
+  <si>
+    <t>No es posible inscribirse a un torneo aun (involucra otro caso de uso)</t>
+  </si>
+  <si>
+    <t>El usuario se inscribe en la lista de participantes de un torneo</t>
+  </si>
+  <si>
+    <t>El usuario no se inscribe en la lista de participantes de un torneo</t>
+  </si>
+  <si>
+    <t>La jugada es correctamente invalidada</t>
+  </si>
+  <si>
+    <t>No se procesa la jugada</t>
+  </si>
+  <si>
+    <t>El usuario entra a la partida deseada</t>
+  </si>
+  <si>
+    <t>Al usuario se le permite participar en la partida que escogio</t>
+  </si>
+  <si>
+    <t>Al usuario se le permite ingresar a la partida</t>
+  </si>
+  <si>
+    <t>Al usuario no se le permite participar en la partida que escogio</t>
   </si>
 </sst>
 </file>
@@ -220,7 +295,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$€-407];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-407]"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +313,20 @@
     <font>
       <b/>
       <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,7 +420,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -340,14 +429,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -359,7 +454,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -370,14 +468,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -687,7 +795,7 @@
   <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:G10"/>
+      <selection activeCell="B7" sqref="B7:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -696,1438 +804,1526 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="B8" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="B22" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="B36" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B48" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="19"/>
+    </row>
+    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B49" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+    </row>
+    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+      <c r="B50" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B65" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="19"/>
+    </row>
+    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B66" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+    </row>
+    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
+      <c r="B67" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+    </row>
+    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B82" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="19"/>
+    </row>
+    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B83" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+    </row>
+    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
+      <c r="B84" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+    </row>
+    <row r="96" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B96" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="19"/>
+    </row>
+    <row r="97" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B97" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
+    </row>
+    <row r="98" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
+      <c r="B98" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+    </row>
+    <row r="110" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B110" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="19"/>
+    </row>
+    <row r="111" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B111" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
+    </row>
+    <row r="112" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
+      <c r="B112" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B59:G59"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
     <mergeCell ref="B36:G36"/>
@@ -2142,78 +2338,39 @@
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="B44:G44"/>
     <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B106:G106"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2223,10 +2380,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2235,39 +2392,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -2282,97 +2439,103 @@
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
@@ -2386,100 +2549,111 @@
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="A1:G1"/>
@@ -2496,10 +2670,6 @@
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
   <headerFooter>
@@ -2514,7 +2684,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B9:G12"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2523,39 +2693,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -2570,205 +2740,217 @@
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="B8" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="B17" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
@@ -2776,12 +2958,12 @@
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
   <headerFooter>
@@ -2796,7 +2978,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B6" sqref="B6:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2805,39 +2987,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -2852,84 +3034,90 @@
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
@@ -2943,93 +3131,96 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="B16" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
@@ -3039,9 +3230,12 @@
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
   <headerFooter>
@@ -3055,8 +3249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3065,39 +3259,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -3112,58 +3306,64 @@
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3189,8 +3389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3199,39 +3399,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -3246,208 +3446,208 @@
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="B17" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="A1:G1"/>
@@ -3456,6 +3656,18 @@
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
   <headerFooter>
